--- a/用藥記錄/2016/201611.xlsx
+++ b/用藥記錄/2016/201611.xlsx
@@ -1,33 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8640"/>
+    <workbookView windowWidth="19095" windowHeight="9120" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="1" sheetId="2" r:id="rId2"/>
+    <sheet name="2" sheetId="3" r:id="rId3"/>
+    <sheet name="1 (2)" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'0'!$A$1:$F$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'1'!$A$1:$F$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'2'!$A$1:$F$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'1 (2)'!$A$1:$F$30</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>驗證功效</t>
+  </si>
+  <si>
+    <t>服用方式</t>
   </si>
   <si>
     <t>藥物名稱</t>
   </si>
   <si>
     <t>用量(g)</t>
+  </si>
+  <si>
+    <t>处理方式</t>
   </si>
   <si>
     <t>本次取其藥性</t>
@@ -45,66 +57,409 @@
     <t>g</t>
   </si>
   <si>
-    <t>服用方式</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>通表裏之氯機</t>
   </si>
   <si>
-    <t>处理方式</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>竹茹</t>
+  </si>
+  <si>
+    <t>蘆根</t>
+  </si>
+  <si>
+    <t>蘇梗</t>
+  </si>
+  <si>
+    <t>除溼健脾</t>
+  </si>
+  <si>
+    <t>炒白朮</t>
+  </si>
+  <si>
+    <t>炒</t>
+  </si>
+  <si>
+    <t>炒薏苡仁</t>
+  </si>
+  <si>
+    <t>幹姜</t>
+  </si>
+  <si>
+    <t>炙甘草</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -138,6 +493,67 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="slantDashDot">
+        <color theme="7"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -174,12 +590,42 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="slantDashDot">
+        <color theme="7"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="slantDashDot">
+        <color theme="7"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="slantDashDot">
+        <color theme="7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="slantDashDot">
+        <color theme="7"/>
       </bottom>
       <diagonal/>
     </border>
@@ -193,49 +639,6 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="slantDashDot">
-        <color theme="7"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="slantDashDot">
-        <color theme="7"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="slantDashDot">
-        <color theme="7"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="slantDashDot">
-        <color theme="7"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom style="slantDashDot">
         <color theme="7"/>
       </bottom>
@@ -255,39 +658,41 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="slantDashDot">
-        <color theme="7"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -295,109 +700,338 @@
       <left/>
       <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+  <cellXfs count="23">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="13" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="5" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="6" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="7" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="8" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="9" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="10" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="11" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="12" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="13" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="14" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="14" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="13" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+  <cellStyles count="51">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="1"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="20% - Accent6" xfId="3" builtinId="50"/>
+    <cellStyle name="60% - Accent5" xfId="4" builtinId="48"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="Accent5" xfId="7" builtinId="45"/>
+    <cellStyle name="Percent" xfId="8" builtinId="5"/>
+    <cellStyle name="60% - Accent4" xfId="9" builtinId="44"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="60% - Accent3" xfId="11" builtinId="40"/>
+    <cellStyle name="20% - Accent3" xfId="12" builtinId="38"/>
+    <cellStyle name="常规 2" xfId="13"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="20% - Accent2" xfId="15" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="16" builtinId="33"/>
+    <cellStyle name="Accent6" xfId="17" builtinId="49"/>
+    <cellStyle name="60% - Accent1" xfId="18" builtinId="32"/>
+    <cellStyle name="Heading 4" xfId="19" builtinId="19"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31"/>
+    <cellStyle name="40% - Accent4" xfId="21" builtinId="43"/>
+    <cellStyle name="Comma[0]" xfId="22" builtinId="6"/>
+    <cellStyle name="40% - Accent3" xfId="23" builtinId="39"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Bad" xfId="25" builtinId="27"/>
+    <cellStyle name="Linked Cell" xfId="26" builtinId="24"/>
+    <cellStyle name="20% - Accent4" xfId="27" builtinId="42"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Output" xfId="29" builtinId="21"/>
+    <cellStyle name="Note" xfId="30" builtinId="10"/>
+    <cellStyle name="Input" xfId="31" builtinId="20"/>
+    <cellStyle name="Good" xfId="32" builtinId="26"/>
+    <cellStyle name="60% - Accent2" xfId="33" builtinId="36"/>
+    <cellStyle name="Calculation" xfId="34" builtinId="22"/>
+    <cellStyle name="Heading 3" xfId="35" builtinId="18"/>
+    <cellStyle name="Currency[0]" xfId="36" builtinId="7"/>
+    <cellStyle name="Heading 1" xfId="37" builtinId="16"/>
+    <cellStyle name="60% - Accent6" xfId="38" builtinId="52"/>
+    <cellStyle name="40% - Accent2" xfId="39" builtinId="35"/>
+    <cellStyle name="Title" xfId="40" builtinId="15"/>
+    <cellStyle name="Accent1" xfId="41" builtinId="29"/>
+    <cellStyle name="CExplanatory Text" xfId="42" builtinId="53"/>
+    <cellStyle name="Currency" xfId="43" builtinId="4"/>
+    <cellStyle name="20% - Accent1" xfId="44" builtinId="30"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9"/>
+    <cellStyle name="Warning Text" xfId="46" builtinId="11"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8"/>
+    <cellStyle name="Heading 2" xfId="48" builtinId="17"/>
+    <cellStyle name="Comma" xfId="49" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="50" builtinId="23"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -406,7 +1040,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="4C4C4C"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -687,140 +1321,141 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
-    <col min="3" max="4" width="15.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="4" width="15.7481481481481" style="1" customWidth="1"/>
     <col min="5" max="5" width="23" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.75" style="1"/>
+    <col min="6" max="6" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7481481481481" style="1"/>
     <col min="8" max="8" width="20" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.75" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="15.75" style="1"/>
+    <col min="9" max="9" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="15.7481481481481" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="63.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="63.95" customHeight="1" spans="2:5">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="21"/>
-    </row>
-    <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C1" s="9"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:5">
       <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="23"/>
-    </row>
-    <row r="3" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:5">
       <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="16"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="7"/>
-    </row>
-    <row r="10" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="10"/>
-    </row>
-    <row r="14" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="12">
+      <c r="E3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="2:5">
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:5">
+      <c r="B5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:5">
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:5">
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:5">
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:5">
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:5">
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:5">
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:5">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:5">
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:5">
+      <c r="B14" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="20">
         <f>COUNTA(B4:B13)</f>
         <v>0</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D14" s="20"/>
+      <c r="E14" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="2:5">
       <c r="B15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="14">
+        <v>8</v>
+      </c>
+      <c r="C15" s="9">
         <f>SUM(C4:C13)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="15" t="s">
-        <v>7</v>
+      <c r="D15" s="9"/>
+      <c r="E15" s="22" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -828,34 +1463,537 @@
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C2:E2"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="B1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:E1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="4" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7481481481481" style="1"/>
+    <col min="8" max="8" width="20" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="15.7481481481481" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="63.95" customHeight="1" spans="2:5">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:5">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:5">
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="2:5">
+      <c r="B4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="11">
+        <v>10</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:5">
+      <c r="B5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="14">
+        <v>15</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:5">
+      <c r="B6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="14">
+        <v>15</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:5">
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:5">
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:5">
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:5">
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:5">
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:5">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:5">
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:5">
+      <c r="B14" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="20">
+        <f>COUNTA(B4:B13)</f>
+        <v>3</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="2:5">
+      <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="9">
+        <f>SUM(C4:C13)</f>
+        <v>40</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
+  <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="B1:E15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="4" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7481481481481" style="1"/>
+    <col min="8" max="8" width="20" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="15.7481481481481" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="63.95" customHeight="1" spans="2:5">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:5">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:5">
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="2:5">
+      <c r="B4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="11">
+        <v>20</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:5">
+      <c r="B5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="14">
+        <v>20</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:5">
+      <c r="B6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="14">
+        <v>15</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:5">
+      <c r="B7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="14">
+        <v>10</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:5">
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:5">
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:5">
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:5">
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:5">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:5">
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:5">
+      <c r="B14" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="20">
+        <f>COUNTA(B4:B13)</f>
+        <v>4</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="2:5">
+      <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="9">
+        <f>SUM(C4:C13)</f>
+        <v>65</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
+  <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="B1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="4" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7481481481481" style="1"/>
+    <col min="8" max="8" width="20" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="15.7481481481481" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="63.95" customHeight="1" spans="2:5">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:5">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:5">
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="2:5">
+      <c r="B4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="11">
+        <v>10</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:5">
+      <c r="B5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="14">
+        <v>15</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:5">
+      <c r="B6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="14">
+        <v>15</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:5">
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:5">
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:5">
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:5">
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:5">
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:5">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:5">
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:5">
+      <c r="B14" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="20">
+        <f>COUNTA(B4:B13)</f>
+        <v>3</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="2:5">
+      <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="9">
+        <f>SUM(C4:C13)</f>
+        <v>40</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
+  <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/用藥記錄/2016/201611.xlsx
+++ b/用藥記錄/2016/201611.xlsx
@@ -1,31 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="9120" activeTab="2"/>
+    <workbookView windowWidth="19095" windowHeight="9120" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
     <sheet name="1" sheetId="2" r:id="rId2"/>
     <sheet name="2" sheetId="3" r:id="rId3"/>
-    <sheet name="1 (2)" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="6" r:id="rId6"/>
+    <sheet name="3" sheetId="4" r:id="rId4"/>
+    <sheet name="1 (2)" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'0'!$A$1:$F$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'1'!$A$1:$F$30</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'1 (2)'!$A$1:$F$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'1 (2)'!$A$1:$F$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'2'!$A$1:$F$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'3'!$A$1:$F$30</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
   <si>
     <t>驗證功效</t>
   </si>
@@ -78,68 +80,395 @@
     <t>炒</t>
   </si>
   <si>
+    <t>薏苡仁</t>
+  </si>
+  <si>
     <t>幹姜</t>
   </si>
   <si>
     <t>炙甘草</t>
   </si>
-  <si>
-    <t>薏苡仁</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -337,106 +666,385 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="52">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+  <cellXfs count="23">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="14" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="5" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="6" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="7" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="8" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="9" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="10" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="11" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="12" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="13" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="14" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="14" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="2"/>
-    <cellStyle name="常规 3" xfId="1"/>
+  <cellStyles count="52">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="1"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="20% - Accent6" xfId="3" builtinId="50"/>
+    <cellStyle name="60% - Accent5" xfId="4" builtinId="48"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="Accent5" xfId="7" builtinId="45"/>
+    <cellStyle name="Percent" xfId="8" builtinId="5"/>
+    <cellStyle name="60% - Accent4" xfId="9" builtinId="44"/>
+    <cellStyle name="常规 3" xfId="10"/>
+    <cellStyle name="Accent4" xfId="11" builtinId="41"/>
+    <cellStyle name="60% - Accent3" xfId="12" builtinId="40"/>
+    <cellStyle name="20% - Accent3" xfId="13" builtinId="38"/>
+    <cellStyle name="常规 2" xfId="14"/>
+    <cellStyle name="Accent3" xfId="15" builtinId="37"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="Accent6" xfId="18" builtinId="49"/>
+    <cellStyle name="60% - Accent1" xfId="19" builtinId="32"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="40% - Accent1" xfId="21" builtinId="31"/>
+    <cellStyle name="40% - Accent4" xfId="22" builtinId="43"/>
+    <cellStyle name="Comma[0]" xfId="23" builtinId="6"/>
+    <cellStyle name="40% - Accent3" xfId="24" builtinId="39"/>
+    <cellStyle name="Neutral" xfId="25" builtinId="28"/>
+    <cellStyle name="Bad" xfId="26" builtinId="27"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="20% - Accent4" xfId="28" builtinId="42"/>
+    <cellStyle name="Total" xfId="29" builtinId="25"/>
+    <cellStyle name="Output" xfId="30" builtinId="21"/>
+    <cellStyle name="Note" xfId="31" builtinId="10"/>
+    <cellStyle name="Input" xfId="32" builtinId="20"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="60% - Accent2" xfId="34" builtinId="36"/>
+    <cellStyle name="Calculation" xfId="35" builtinId="22"/>
+    <cellStyle name="Heading 3" xfId="36" builtinId="18"/>
+    <cellStyle name="Currency[0]" xfId="37" builtinId="7"/>
+    <cellStyle name="Heading 1" xfId="38" builtinId="16"/>
+    <cellStyle name="60% - Accent6" xfId="39" builtinId="52"/>
+    <cellStyle name="40% - Accent2" xfId="40" builtinId="35"/>
+    <cellStyle name="Title" xfId="41" builtinId="15"/>
+    <cellStyle name="Accent1" xfId="42" builtinId="29"/>
+    <cellStyle name="CExplanatory Text" xfId="43" builtinId="53"/>
+    <cellStyle name="Currency" xfId="44" builtinId="4"/>
+    <cellStyle name="20% - Accent1" xfId="45" builtinId="30"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9"/>
+    <cellStyle name="Warning Text" xfId="47" builtinId="11"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
+    <cellStyle name="Heading 2" xfId="49" builtinId="17"/>
+    <cellStyle name="Comma" xfId="50" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="51" builtinId="23"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -445,7 +1053,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="4C4C4C"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -726,139 +1334,140 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B1:E15"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
-    <col min="3" max="4" width="15.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="4" width="15.7481481481481" style="1" customWidth="1"/>
     <col min="5" max="5" width="23" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.75" style="1"/>
+    <col min="6" max="6" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7481481481481" style="1"/>
     <col min="8" max="8" width="20" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.75" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="15.75" style="1"/>
+    <col min="9" max="9" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="15.7481481481481" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="63.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="63.95" customHeight="1" spans="2:5">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
-    </row>
-    <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:5">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
-    </row>
-    <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:5">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-    </row>
-    <row r="14" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="14" t="s">
+    <row r="4" customHeight="1" spans="2:5">
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:5">
+      <c r="B5" s="12"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:5">
+      <c r="B6" s="12"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:5">
+      <c r="B7" s="12"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:5">
+      <c r="B8" s="12"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:5">
+      <c r="B9" s="12"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:5">
+      <c r="B10" s="12"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:5">
+      <c r="B11" s="12"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:5">
+      <c r="B12" s="12"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="13"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:5">
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="16"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:5">
+      <c r="B14" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="18">
         <f>COUNTA(B4:B13)</f>
         <v>0</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16" t="s">
+      <c r="D14" s="18"/>
+      <c r="E14" s="19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" customHeight="1" spans="2:5">
       <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <f>SUM(C4:C13)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="17" t="s">
+      <c r="D15" s="3"/>
+      <c r="E15" s="20" t="s">
         <v>9</v>
       </c>
     </row>
@@ -867,160 +1476,161 @@
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C2:E2"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
-    <col min="3" max="4" width="15.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="4" width="15.7481481481481" style="1" customWidth="1"/>
     <col min="5" max="5" width="23" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.75" style="1"/>
+    <col min="6" max="6" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7481481481481" style="1"/>
     <col min="8" max="8" width="20" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.75" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="15.75" style="1"/>
+    <col min="9" max="9" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="15.7481481481481" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="63.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="63.95" customHeight="1" spans="2:5">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
-    </row>
-    <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:5">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
-    </row>
-    <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:5">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="5" t="s">
+    <row r="4" customHeight="1" spans="2:5">
+      <c r="B4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="10">
         <v>10</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="8" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:5">
+      <c r="B5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="6">
         <v>15</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="8" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:5">
+      <c r="B6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="6">
         <v>15</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-    </row>
-    <row r="14" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="14" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:5">
+      <c r="B7" s="12"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:5">
+      <c r="B8" s="12"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:5">
+      <c r="B9" s="12"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:5">
+      <c r="B10" s="12"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:5">
+      <c r="B11" s="12"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:5">
+      <c r="B12" s="12"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="13"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:5">
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="16"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:5">
+      <c r="B14" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="18">
         <f>COUNTA(B4:B13)</f>
         <v>3</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16" t="s">
+      <c r="D14" s="18"/>
+      <c r="E14" s="19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" customHeight="1" spans="2:5">
       <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <f>SUM(C4:C13)</f>
         <v>40</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="17" t="s">
+      <c r="D15" s="3"/>
+      <c r="E15" s="20" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1029,168 +1639,169 @@
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C2:E2"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
-    <col min="3" max="4" width="15.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="4" width="15.7481481481481" style="1" customWidth="1"/>
     <col min="5" max="5" width="23" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.75" style="1"/>
+    <col min="6" max="6" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7481481481481" style="1"/>
     <col min="8" max="8" width="20" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.75" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="15.75" style="1"/>
+    <col min="9" max="9" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="15.7481481481481" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="63.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="63.95" customHeight="1" spans="2:5">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
-    </row>
-    <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:5">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
-    </row>
-    <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:5">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="5" t="s">
+    <row r="4" customHeight="1" spans="2:5">
+      <c r="B4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="10">
         <v>20</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="8" t="s">
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:5">
+      <c r="B5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="6">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:5">
+      <c r="B6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="6">
+        <v>15</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:5">
+      <c r="B7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="9">
-        <v>15</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="9">
-        <v>15</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="9">
+      <c r="C7" s="6">
         <v>10</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-    </row>
-    <row r="14" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="14" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:5">
+      <c r="B8" s="12"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:5">
+      <c r="B9" s="12"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:5">
+      <c r="B10" s="12"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:5">
+      <c r="B11" s="12"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:5">
+      <c r="B12" s="12"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="13"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:5">
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="16"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:5">
+      <c r="B14" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="18">
         <f>COUNTA(B4:B13)</f>
         <v>4</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16" t="s">
+      <c r="D14" s="18"/>
+      <c r="E14" s="19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" customHeight="1" spans="2:5">
       <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <f>SUM(C4:C13)</f>
         <v>60</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="17" t="s">
+      <c r="D15" s="3"/>
+      <c r="E15" s="20" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1199,160 +1810,330 @@
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C2:E2"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="B1:E15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="4" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7481481481481" style="1"/>
+    <col min="8" max="8" width="20" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="15.7481481481481" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="63.95" customHeight="1" spans="2:5">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:5">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:5">
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="2:5">
+      <c r="B4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="10">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:5">
+      <c r="B5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="6">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:5">
+      <c r="B6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="6">
+        <v>15</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:5">
+      <c r="B7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="6">
+        <v>10</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:5">
+      <c r="B8" s="12"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:5">
+      <c r="B9" s="12"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:5">
+      <c r="B10" s="12"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:5">
+      <c r="B11" s="12"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:5">
+      <c r="B12" s="12"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="13"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:5">
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="16"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:5">
+      <c r="B14" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="18">
+        <f>COUNTA(B4:B13)</f>
+        <v>4</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="E14" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="2:5">
+      <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="3">
+        <f>SUM(C4:C13)</f>
+        <v>60</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
+  <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
-    <col min="3" max="4" width="15.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="4" width="15.7481481481481" style="1" customWidth="1"/>
     <col min="5" max="5" width="23" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.75" style="1"/>
+    <col min="6" max="6" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7481481481481" style="1"/>
     <col min="8" max="8" width="20" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.75" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="15.75" style="1"/>
+    <col min="9" max="9" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="15.7481481481481" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="63.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="63.95" customHeight="1" spans="2:5">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
-    </row>
-    <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:5">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
-    </row>
-    <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:5">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="5" t="s">
+    <row r="4" customHeight="1" spans="2:5">
+      <c r="B4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="10">
         <v>10</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="8" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:5">
+      <c r="B5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="6">
         <v>15</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="8" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:5">
+      <c r="B6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="6">
         <v>15</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-    </row>
-    <row r="14" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="14" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:5">
+      <c r="B7" s="12"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:5">
+      <c r="B8" s="12"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:5">
+      <c r="B9" s="12"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:5">
+      <c r="B10" s="12"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:5">
+      <c r="B11" s="12"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:5">
+      <c r="B12" s="12"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="13"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:5">
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="16"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:5">
+      <c r="B14" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="18">
         <f>COUNTA(B4:B13)</f>
         <v>3</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16" t="s">
+      <c r="D14" s="18"/>
+      <c r="E14" s="19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" customHeight="1" spans="2:5">
       <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <f>SUM(C4:C13)</f>
         <v>40</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="17" t="s">
+      <c r="D15" s="3"/>
+      <c r="E15" s="20" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1361,34 +2142,40 @@
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C2:E2"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" scale="66" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/用藥記錄/2016/201611.xlsx
+++ b/用藥記錄/2016/201611.xlsx
@@ -4,28 +4,30 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="9120" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="9120" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
     <sheet name="01" sheetId="2" r:id="rId2"/>
     <sheet name="1" sheetId="3" r:id="rId3"/>
     <sheet name="2" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="7" r:id="rId6"/>
+    <sheet name="3" sheetId="8" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'0'!$A$1:$F$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'01'!$A$1:$F$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'1'!$A$1:$F$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'2'!$A$1:$F$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'3'!$A$1:$F$29</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="24">
   <si>
     <t>驗證功效</t>
   </si>
@@ -96,6 +98,10 @@
   </si>
   <si>
     <t>山楂</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡矢藤</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -361,7 +367,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -413,6 +419,15 @@
     </xf>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -765,17 +780,17 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
@@ -913,19 +928,19 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
@@ -1075,19 +1090,19 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
@@ -1224,7 +1239,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -1245,19 +1260,19 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
@@ -1398,14 +1413,171 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
+    <col min="3" max="4" width="15.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.75" style="1"/>
+    <col min="8" max="8" width="20" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.75" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="15.75" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="63.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
+    </row>
+    <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
+    </row>
+    <row r="3" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="7">
+        <v>15</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="20">
+        <v>10</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="20">
+        <v>10</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="20">
+        <v>10</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="20">
+        <v>10</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="20">
+        <v>10</v>
+      </c>
+      <c r="D9" s="20"/>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="9"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="9"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="11"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="13"/>
+    </row>
+    <row r="13" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="15">
+        <f>COUNTA(B4:B12)</f>
+        <v>6</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="18">
+        <f>SUM(C4:C12)</f>
+        <v>65</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="E14" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E2"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageSetup paperSize="9" scale="66" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -1420,4 +1592,17 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+</worksheet>
 </file>
--- a/用藥記錄/2016/201611.xlsx
+++ b/用藥記錄/2016/201611.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="9120" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="9120" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
@@ -12,8 +12,9 @@
     <sheet name="1" sheetId="3" r:id="rId3"/>
     <sheet name="2" sheetId="4" r:id="rId4"/>
     <sheet name="3" sheetId="8" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet3" sheetId="7" r:id="rId7"/>
+    <sheet name="5" sheetId="9" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId7"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'0'!$A$1:$F$30</definedName>
@@ -21,13 +22,14 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">'1'!$A$1:$F$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'2'!$A$1:$F$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'3'!$A$1:$F$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'5'!$A$1:$F$28</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="24">
   <si>
     <t>驗證功效</t>
   </si>
@@ -367,7 +369,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -419,6 +421,15 @@
     </xf>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -780,17 +791,17 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
@@ -928,19 +939,19 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
@@ -1090,19 +1101,19 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
@@ -1260,19 +1271,19 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
@@ -1415,8 +1426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1436,19 +1447,19 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -1583,14 +1594,161 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
+    <col min="3" max="4" width="15.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.75" style="1"/>
+    <col min="8" max="8" width="20" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.75" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="15.75" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="63.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="25"/>
+      <c r="E1" s="26"/>
+    </row>
+    <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
+    </row>
+    <row r="3" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="7">
+        <v>10</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="23">
+        <v>10</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="23">
+        <v>10</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="23">
+        <v>10</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="23">
+        <v>10</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="9"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="9"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="15">
+        <f>COUNTA(B4:B11)</f>
+        <v>5</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="21">
+        <f>SUM(C4:C11)</f>
+        <v>50</v>
+      </c>
+      <c r="D13" s="21"/>
+      <c r="E13" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E2"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageSetup paperSize="9" scale="66" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -1605,4 +1763,17 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+</worksheet>
 </file>
--- a/用藥記錄/2016/201611.xlsx
+++ b/用藥記錄/2016/201611.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="9120" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="9120" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
@@ -13,8 +13,9 @@
     <sheet name="2" sheetId="4" r:id="rId4"/>
     <sheet name="3" sheetId="8" r:id="rId5"/>
     <sheet name="5" sheetId="9" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId7"/>
-    <sheet name="Sheet3" sheetId="7" r:id="rId8"/>
+    <sheet name="6" sheetId="10" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId8"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'0'!$A$1:$F$30</definedName>
@@ -23,13 +24,14 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'2'!$A$1:$F$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'3'!$A$1:$F$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'5'!$A$1:$F$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">'6'!$A$1:$F$28</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="24">
   <si>
     <t>驗證功效</t>
   </si>
@@ -369,7 +371,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -421,6 +423,15 @@
     </xf>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -791,17 +802,17 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
@@ -939,19 +950,19 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26"/>
+      <c r="C1" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
@@ -1101,19 +1112,19 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
@@ -1271,19 +1282,19 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="29"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
@@ -1447,19 +1458,19 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="29"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -1596,8 +1607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1617,19 +1628,19 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="29"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
@@ -1754,14 +1765,161 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
+    <col min="3" max="4" width="15.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.75" style="1"/>
+    <col min="8" max="8" width="20" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.75" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="15.75" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="63.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
+    </row>
+    <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="32"/>
+    </row>
+    <row r="3" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="7">
+        <v>10</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="26">
+        <v>10</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="26">
+        <v>10</v>
+      </c>
+      <c r="D6" s="26"/>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="26">
+        <v>10</v>
+      </c>
+      <c r="D7" s="26"/>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="26">
+        <v>10</v>
+      </c>
+      <c r="D8" s="26"/>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="9"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="9"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="15">
+        <f>COUNTA(B4:B11)</f>
+        <v>5</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="24">
+        <f>SUM(C4:C11)</f>
+        <v>50</v>
+      </c>
+      <c r="D13" s="24"/>
+      <c r="E13" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E2"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageSetup paperSize="9" scale="66" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -1776,4 +1934,17 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+</worksheet>
 </file>
--- a/用藥記錄/2016/201611.xlsx
+++ b/用藥記錄/2016/201611.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="9120" activeTab="6"/>
+    <workbookView windowWidth="19095" windowHeight="9120" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
     <sheet name="01" sheetId="2" r:id="rId2"/>
     <sheet name="1" sheetId="3" r:id="rId3"/>
     <sheet name="2" sheetId="4" r:id="rId4"/>
-    <sheet name="3" sheetId="8" r:id="rId5"/>
-    <sheet name="5" sheetId="9" r:id="rId6"/>
-    <sheet name="6" sheetId="10" r:id="rId7"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId8"/>
-    <sheet name="Sheet3" sheetId="7" r:id="rId9"/>
+    <sheet name="3" sheetId="5" r:id="rId5"/>
+    <sheet name="5" sheetId="6" r:id="rId6"/>
+    <sheet name="6" sheetId="7" r:id="rId7"/>
+    <sheet name="7" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet3" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'0'!$A$1:$F$30</definedName>
@@ -25,13 +26,14 @@
     <definedName name="_xlnm.Print_Area" localSheetId="4">'3'!$A$1:$F$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'5'!$A$1:$F$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'6'!$A$1:$F$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'7'!$A$1:$F$28</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>驗證功效</t>
   </si>
@@ -94,73 +96,394 @@
   </si>
   <si>
     <t>干桂圆</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>薏苡仁</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>山楂</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>鸡矢藤</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -358,137 +681,389 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="53">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+  <cellXfs count="23">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="5" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="6" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="7" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="8" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="9" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="10" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="11" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="12" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="13" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="14" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="14" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="3"/>
-    <cellStyle name="常规 3" xfId="2"/>
-    <cellStyle name="常规 4" xfId="1"/>
+  <cellStyles count="53">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="1"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="20% - Accent6" xfId="3" builtinId="50"/>
+    <cellStyle name="60% - Accent5" xfId="4" builtinId="48"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="常规 4" xfId="7"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="Percent" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - Accent4" xfId="10" builtinId="44"/>
+    <cellStyle name="常规 3" xfId="11"/>
+    <cellStyle name="Accent4" xfId="12" builtinId="41"/>
+    <cellStyle name="60% - Accent3" xfId="13" builtinId="40"/>
+    <cellStyle name="20% - Accent3" xfId="14" builtinId="38"/>
+    <cellStyle name="常规 2" xfId="15"/>
+    <cellStyle name="Accent3" xfId="16" builtinId="37"/>
+    <cellStyle name="20% - Accent2" xfId="17" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="18" builtinId="33"/>
+    <cellStyle name="Accent6" xfId="19" builtinId="49"/>
+    <cellStyle name="60% - Accent1" xfId="20" builtinId="32"/>
+    <cellStyle name="Heading 4" xfId="21" builtinId="19"/>
+    <cellStyle name="40% - Accent1" xfId="22" builtinId="31"/>
+    <cellStyle name="40% - Accent4" xfId="23" builtinId="43"/>
+    <cellStyle name="Comma[0]" xfId="24" builtinId="6"/>
+    <cellStyle name="40% - Accent3" xfId="25" builtinId="39"/>
+    <cellStyle name="Neutral" xfId="26" builtinId="28"/>
+    <cellStyle name="Bad" xfId="27" builtinId="27"/>
+    <cellStyle name="Linked Cell" xfId="28" builtinId="24"/>
+    <cellStyle name="20% - Accent4" xfId="29" builtinId="42"/>
+    <cellStyle name="Total" xfId="30" builtinId="25"/>
+    <cellStyle name="Output" xfId="31" builtinId="21"/>
+    <cellStyle name="Note" xfId="32" builtinId="10"/>
+    <cellStyle name="Input" xfId="33" builtinId="20"/>
+    <cellStyle name="Good" xfId="34" builtinId="26"/>
+    <cellStyle name="60% - Accent2" xfId="35" builtinId="36"/>
+    <cellStyle name="Calculation" xfId="36" builtinId="22"/>
+    <cellStyle name="Heading 3" xfId="37" builtinId="18"/>
+    <cellStyle name="Currency[0]" xfId="38" builtinId="7"/>
+    <cellStyle name="Heading 1" xfId="39" builtinId="16"/>
+    <cellStyle name="60% - Accent6" xfId="40" builtinId="52"/>
+    <cellStyle name="40% - Accent2" xfId="41" builtinId="35"/>
+    <cellStyle name="Title" xfId="42" builtinId="15"/>
+    <cellStyle name="Accent1" xfId="43" builtinId="29"/>
+    <cellStyle name="CExplanatory Text" xfId="44" builtinId="53"/>
+    <cellStyle name="Currency" xfId="45" builtinId="4"/>
+    <cellStyle name="20% - Accent1" xfId="46" builtinId="30"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9"/>
+    <cellStyle name="Warning Text" xfId="48" builtinId="11"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8"/>
+    <cellStyle name="Heading 2" xfId="50" builtinId="17"/>
+    <cellStyle name="Comma" xfId="51" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="52" builtinId="23"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -497,7 +1072,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="4C4C4C"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -778,139 +1353,140 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B1:E15"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
-    <col min="3" max="4" width="15.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="4" width="15.7481481481481" style="1" customWidth="1"/>
     <col min="5" max="5" width="23" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.75" style="1"/>
+    <col min="6" max="6" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7481481481481" style="1"/>
     <col min="8" max="8" width="20" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.75" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="15.75" style="1"/>
+    <col min="9" max="9" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="15.7481481481481" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="63.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="63.95" customHeight="1" spans="2:5">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="29"/>
-    </row>
-    <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C1" s="9"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:5">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="32"/>
-    </row>
-    <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C2" s="14"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:5">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="9"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="9"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="9"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="9"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="9"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="9"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="9"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="9"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-    </row>
-    <row r="14" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="14" t="s">
+    <row r="4" customHeight="1" spans="2:5">
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:5">
+      <c r="B5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:5">
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:5">
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:5">
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:5">
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:5">
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:5">
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:5">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:5">
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:5">
+      <c r="B14" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="20">
         <f>COUNTA(B4:B13)</f>
         <v>0</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16" t="s">
+      <c r="D14" s="20"/>
+      <c r="E14" s="21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" customHeight="1" spans="2:5">
       <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="9">
         <f>SUM(C4:C13)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="17" t="s">
+      <c r="D15" s="9"/>
+      <c r="E15" s="22" t="s">
         <v>9</v>
       </c>
     </row>
@@ -919,160 +1495,177 @@
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C2:E2"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
-    <col min="3" max="4" width="15.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="4" width="15.7481481481481" style="1" customWidth="1"/>
     <col min="5" max="5" width="23" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.75" style="1"/>
+    <col min="6" max="6" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7481481481481" style="1"/>
     <col min="8" max="8" width="20" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.75" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="15.75" style="1"/>
+    <col min="9" max="9" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="15.7481481481481" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="63.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="63.95" customHeight="1" spans="2:5">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="29"/>
-    </row>
-    <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:5">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="32"/>
-    </row>
-    <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C2" s="14"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:5">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="6" t="s">
+    <row r="4" customHeight="1" spans="2:5">
+      <c r="B4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="7">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="9" t="s">
+      <c r="C4" s="11">
+        <v>10</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:5">
+      <c r="B5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="14">
         <v>15</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="9" t="s">
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:5">
+      <c r="B6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="14">
         <v>15</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="9"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="9"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="9"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="9"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="9"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="9"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-    </row>
-    <row r="14" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="14" t="s">
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:5">
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:5">
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:5">
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:5">
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:5">
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:5">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:5">
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:5">
+      <c r="B14" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="20">
         <f>COUNTA(B4:B13)</f>
         <v>3</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16" t="s">
+      <c r="D14" s="20"/>
+      <c r="E14" s="21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" customHeight="1" spans="2:5">
       <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="9">
         <f>SUM(C4:C13)</f>
         <v>40</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="17" t="s">
+      <c r="D15" s="9"/>
+      <c r="E15" s="22" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1081,168 +1674,169 @@
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C2:E2"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B1:E15"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
-    <col min="3" max="4" width="15.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="4" width="15.7481481481481" style="1" customWidth="1"/>
     <col min="5" max="5" width="23" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.75" style="1"/>
+    <col min="6" max="6" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7481481481481" style="1"/>
     <col min="8" max="8" width="20" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.75" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="15.75" style="1"/>
+    <col min="9" max="9" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="15.7481481481481" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="63.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="63.95" customHeight="1" spans="2:5">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="29"/>
-    </row>
-    <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:5">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="32"/>
-    </row>
-    <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C2" s="14"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:5">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="6" t="s">
+    <row r="4" customHeight="1" spans="2:5">
+      <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="11">
         <v>20</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="9" t="s">
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:5">
+      <c r="B5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="14">
         <v>15</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="9" t="s">
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:5">
+      <c r="B6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="14">
         <v>15</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="9" t="s">
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:5">
+      <c r="B7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="5">
-        <v>10</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="9"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="9"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="9"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="9"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="9"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-    </row>
-    <row r="14" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="14" t="s">
+      <c r="C7" s="14">
+        <v>10</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:5">
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:5">
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:5">
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:5">
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:5">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:5">
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:5">
+      <c r="B14" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="20">
         <f>COUNTA(B4:B13)</f>
         <v>4</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16" t="s">
+      <c r="D14" s="20"/>
+      <c r="E14" s="21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" customHeight="1" spans="2:5">
       <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="9">
         <f>SUM(C4:C13)</f>
         <v>60</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="17" t="s">
+      <c r="D15" s="9"/>
+      <c r="E15" s="22" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1251,174 +1845,175 @@
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C2:E2"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B1:E15"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
-    <col min="3" max="4" width="15.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="4" width="15.7481481481481" style="1" customWidth="1"/>
     <col min="5" max="5" width="23" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.75" style="1"/>
+    <col min="6" max="6" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7481481481481" style="1"/>
     <col min="8" max="8" width="20" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.75" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="15.75" style="1"/>
+    <col min="9" max="9" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="15.7481481481481" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="63.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="63.95" customHeight="1" spans="2:5">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="29"/>
-    </row>
-    <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:5">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="32"/>
-    </row>
-    <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C2" s="14"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:5">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="6" t="s">
+    <row r="4" customHeight="1" spans="2:5">
+      <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="11">
         <v>15</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="9" t="s">
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:5">
+      <c r="B5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="14">
+        <v>10</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:5">
+      <c r="B6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="14">
+        <v>10</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:5">
+      <c r="B7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="14">
+        <v>10</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:5">
+      <c r="B8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="14">
+        <v>10</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:5">
+      <c r="B9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="5">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="5">
-        <v>10</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="5">
-        <v>10</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="5">
-        <v>10</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="5">
-        <v>10</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="9"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="9"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="9"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-    </row>
-    <row r="14" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="14" t="s">
+      <c r="C9" s="14">
+        <v>10</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:5">
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:5">
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:5">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:5">
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:5">
+      <c r="B14" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="20">
         <f>COUNTA(B4:B13)</f>
         <v>6</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16" t="s">
+      <c r="D14" s="20"/>
+      <c r="E14" s="21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" customHeight="1" spans="2:5">
       <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="9">
         <f>SUM(C4:C13)</f>
         <v>65</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="17" t="s">
+      <c r="D15" s="9"/>
+      <c r="E15" s="22" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1427,168 +2022,169 @@
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C2:E2"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
-    <col min="3" max="4" width="15.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="4" width="15.7481481481481" style="1" customWidth="1"/>
     <col min="5" max="5" width="23" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.75" style="1"/>
+    <col min="6" max="6" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7481481481481" style="1"/>
     <col min="8" max="8" width="20" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.75" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="15.75" style="1"/>
+    <col min="9" max="9" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="15.7481481481481" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="63.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="63.95" customHeight="1" spans="2:5">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="29"/>
-    </row>
-    <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:5">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="32"/>
-    </row>
-    <row r="3" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="14"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:5">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="6" t="s">
+    <row r="4" customHeight="1" spans="2:5">
+      <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="11">
         <v>15</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="9" t="s">
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:5">
+      <c r="B5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="14">
+        <v>10</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:5">
+      <c r="B6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="14">
+        <v>10</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:5">
+      <c r="B7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="14">
+        <v>10</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:5">
+      <c r="B8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="20">
-        <v>10</v>
-      </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="20">
-        <v>10</v>
-      </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="20">
-        <v>10</v>
-      </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="9" t="s">
+      <c r="C8" s="14">
+        <v>10</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:5">
+      <c r="B9" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="20">
-        <v>10</v>
-      </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="20">
-        <v>10</v>
-      </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="9"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="9"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="13"/>
-    </row>
-    <row r="13" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="14" t="s">
+      <c r="C9" s="14">
+        <v>10</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:5">
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:5">
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:5">
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="18"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:5">
+      <c r="B13" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="20">
         <f>COUNTA(B4:B12)</f>
         <v>6</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16" t="s">
+      <c r="D13" s="20"/>
+      <c r="E13" s="21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" customHeight="1" spans="2:5">
       <c r="B14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="9">
         <f>SUM(C4:C12)</f>
         <v>65</v>
       </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="17" t="s">
+      <c r="D14" s="9"/>
+      <c r="E14" s="22" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1597,158 +2193,159 @@
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C2:E2"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B1:E13"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
-    <col min="3" max="4" width="15.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="4" width="15.7481481481481" style="1" customWidth="1"/>
     <col min="5" max="5" width="23" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.75" style="1"/>
+    <col min="6" max="6" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7481481481481" style="1"/>
     <col min="8" max="8" width="20" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.75" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="15.75" style="1"/>
+    <col min="9" max="9" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="15.7481481481481" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="63.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="63.95" customHeight="1" spans="2:5">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="29"/>
-    </row>
-    <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:5">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="32"/>
-    </row>
-    <row r="3" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="14"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:5">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="6" t="s">
+    <row r="4" customHeight="1" spans="2:5">
+      <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="7">
-        <v>10</v>
-      </c>
-      <c r="D4" s="21" t="s">
+      <c r="C4" s="11">
+        <v>10</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="9" t="s">
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:5">
+      <c r="B5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="23">
-        <v>10</v>
-      </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="9" t="s">
+      <c r="C5" s="14">
+        <v>10</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:5">
+      <c r="B6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="23">
-        <v>10</v>
-      </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="9" t="s">
+      <c r="C6" s="14">
+        <v>10</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:5">
+      <c r="B7" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="14">
+        <v>10</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:5">
+      <c r="B8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="23">
-        <v>10</v>
-      </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="23">
-        <v>10</v>
-      </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="9"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="9"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="13"/>
-    </row>
-    <row r="12" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="14" t="s">
+      <c r="C8" s="14">
+        <v>10</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:5">
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:5">
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:5">
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="18"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:5">
+      <c r="B12" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="20">
         <f>COUNTA(B4:B11)</f>
         <v>5</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16" t="s">
+      <c r="D12" s="20"/>
+      <c r="E12" s="21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" customHeight="1" spans="2:5">
       <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="9">
         <f>SUM(C4:C11)</f>
         <v>50</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="17" t="s">
+      <c r="D13" s="9"/>
+      <c r="E13" s="22" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1757,158 +2354,159 @@
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C2:E2"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
-    <col min="3" max="4" width="15.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="4" width="15.7481481481481" style="1" customWidth="1"/>
     <col min="5" max="5" width="23" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.75" style="1"/>
+    <col min="6" max="6" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7481481481481" style="1"/>
     <col min="8" max="8" width="20" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.75" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="15.75" style="1"/>
+    <col min="9" max="9" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="15.7481481481481" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="63.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="63.95" customHeight="1" spans="2:5">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="29"/>
-    </row>
-    <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:5">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="32"/>
-    </row>
-    <row r="3" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="14"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:5">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="6" t="s">
+    <row r="4" customHeight="1" spans="2:5">
+      <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="7">
-        <v>10</v>
-      </c>
-      <c r="D4" s="24" t="s">
+      <c r="C4" s="11">
+        <v>10</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="9" t="s">
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:5">
+      <c r="B5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="26">
-        <v>10</v>
-      </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="9" t="s">
+      <c r="C5" s="14">
+        <v>10</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:5">
+      <c r="B6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="26">
-        <v>10</v>
-      </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="9" t="s">
+      <c r="C6" s="14">
+        <v>10</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:5">
+      <c r="B7" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="14">
+        <v>10</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:5">
+      <c r="B8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="26">
-        <v>10</v>
-      </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="26">
-        <v>10</v>
-      </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="9"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="9"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="13"/>
-    </row>
-    <row r="12" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="14" t="s">
+      <c r="C8" s="14">
+        <v>10</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:5">
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:5">
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:5">
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="18"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:5">
+      <c r="B12" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="20">
         <f>COUNTA(B4:B11)</f>
         <v>5</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16" t="s">
+      <c r="D12" s="20"/>
+      <c r="E12" s="21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" customHeight="1" spans="2:5">
       <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="9">
         <f>SUM(C4:C11)</f>
         <v>50</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="17" t="s">
+      <c r="D13" s="9"/>
+      <c r="E13" s="22" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1917,34 +2515,185 @@
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C2:E2"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="B1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="4" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7481481481481" style="1"/>
+    <col min="8" max="8" width="20" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="15.7481481481481" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="63.95" customHeight="1" spans="2:5">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:5">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:5">
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="2:5">
+      <c r="B4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="11">
+        <v>10</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:5">
+      <c r="B5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="14">
+        <v>10</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:5">
+      <c r="B6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="14">
+        <v>10</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:5">
+      <c r="B7" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="14">
+        <v>10</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:5">
+      <c r="B8" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="14">
+        <v>10</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:5">
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:5">
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:5">
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="18"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:5">
+      <c r="B12" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="20">
+        <f>COUNTA(B4:B11)</f>
+        <v>5</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="2:5">
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="9">
+        <f>SUM(C4:C11)</f>
+        <v>50</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
+  <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/用藥記錄/2016/201611.xlsx
+++ b/用藥記錄/2016/201611.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="9120" activeTab="7"/>
+    <workbookView windowWidth="19095" windowHeight="9120" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
@@ -15,8 +15,9 @@
     <sheet name="5" sheetId="6" r:id="rId6"/>
     <sheet name="6" sheetId="7" r:id="rId7"/>
     <sheet name="7" sheetId="8" r:id="rId8"/>
-    <sheet name="Sheet2" sheetId="9" r:id="rId9"/>
-    <sheet name="Sheet3" sheetId="10" r:id="rId10"/>
+    <sheet name="9" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet2" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet3" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'0'!$A$1:$F$30</definedName>
@@ -27,13 +28,14 @@
     <definedName name="_xlnm.Print_Area" localSheetId="5">'5'!$A$1:$F$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'6'!$A$1:$F$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'7'!$A$1:$F$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">'9'!$A$1:$F$28</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
     <t>驗證功效</t>
   </si>
@@ -102,60 +104,410 @@
   </si>
   <si>
     <t>鸡矢藤</t>
+  </si>
+  <si>
+    <t>升清降濁、通鼻竅</t>
+  </si>
+  <si>
+    <t>龍骨</t>
+  </si>
+  <si>
+    <t>降濁</t>
+  </si>
+  <si>
+    <t>牡蠣</t>
+  </si>
+  <si>
+    <t>通草</t>
+  </si>
+  <si>
+    <t>升清</t>
+  </si>
+  <si>
+    <t>柴胡</t>
+  </si>
+  <si>
+    <t>疏肝</t>
+  </si>
+  <si>
+    <t>甘草</t>
+  </si>
+  <si>
+    <t>調和諸藥</t>
+  </si>
+  <si>
+    <t>辛夷</t>
+  </si>
+  <si>
+    <t>包</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -353,114 +705,387 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+  <cellXfs count="21">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="5" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="6" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="7" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="8" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="9" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="10" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="11" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="12" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="13" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="14" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="14" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="4"/>
-    <cellStyle name="常规 3" xfId="3"/>
-    <cellStyle name="常规 4" xfId="2"/>
-    <cellStyle name="常规 5" xfId="1"/>
+  <cellStyles count="54">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="1"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="20% - Accent6" xfId="3" builtinId="50"/>
+    <cellStyle name="60% - Accent5" xfId="4" builtinId="48"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="常规 4" xfId="7"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="Percent" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - Accent4" xfId="10" builtinId="44"/>
+    <cellStyle name="常规 3" xfId="11"/>
+    <cellStyle name="Accent4" xfId="12" builtinId="41"/>
+    <cellStyle name="60% - Accent3" xfId="13" builtinId="40"/>
+    <cellStyle name="20% - Accent3" xfId="14" builtinId="38"/>
+    <cellStyle name="常规 2" xfId="15"/>
+    <cellStyle name="Accent3" xfId="16" builtinId="37"/>
+    <cellStyle name="20% - Accent2" xfId="17" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="18" builtinId="33"/>
+    <cellStyle name="常规 5" xfId="19"/>
+    <cellStyle name="Accent6" xfId="20" builtinId="49"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32"/>
+    <cellStyle name="Heading 4" xfId="22" builtinId="19"/>
+    <cellStyle name="40% - Accent1" xfId="23" builtinId="31"/>
+    <cellStyle name="40% - Accent4" xfId="24" builtinId="43"/>
+    <cellStyle name="Comma[0]" xfId="25" builtinId="6"/>
+    <cellStyle name="40% - Accent3" xfId="26" builtinId="39"/>
+    <cellStyle name="Neutral" xfId="27" builtinId="28"/>
+    <cellStyle name="Bad" xfId="28" builtinId="27"/>
+    <cellStyle name="Linked Cell" xfId="29" builtinId="24"/>
+    <cellStyle name="20% - Accent4" xfId="30" builtinId="42"/>
+    <cellStyle name="Total" xfId="31" builtinId="25"/>
+    <cellStyle name="Output" xfId="32" builtinId="21"/>
+    <cellStyle name="Note" xfId="33" builtinId="10"/>
+    <cellStyle name="Input" xfId="34" builtinId="20"/>
+    <cellStyle name="Good" xfId="35" builtinId="26"/>
+    <cellStyle name="60% - Accent2" xfId="36" builtinId="36"/>
+    <cellStyle name="Calculation" xfId="37" builtinId="22"/>
+    <cellStyle name="Heading 3" xfId="38" builtinId="18"/>
+    <cellStyle name="Currency[0]" xfId="39" builtinId="7"/>
+    <cellStyle name="Heading 1" xfId="40" builtinId="16"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52"/>
+    <cellStyle name="40% - Accent2" xfId="42" builtinId="35"/>
+    <cellStyle name="Title" xfId="43" builtinId="15"/>
+    <cellStyle name="Accent1" xfId="44" builtinId="29"/>
+    <cellStyle name="CExplanatory Text" xfId="45" builtinId="53"/>
+    <cellStyle name="Currency" xfId="46" builtinId="4"/>
+    <cellStyle name="20% - Accent1" xfId="47" builtinId="30"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9"/>
+    <cellStyle name="Warning Text" xfId="49" builtinId="11"/>
+    <cellStyle name="Hyperlink" xfId="50" builtinId="8"/>
+    <cellStyle name="Heading 2" xfId="51" builtinId="17"/>
+    <cellStyle name="Comma" xfId="52" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="53" builtinId="23"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -469,7 +1094,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="4C4C4C"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -750,139 +1375,140 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B1:E15"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
-    <col min="3" max="4" width="15.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="4" width="15.7481481481481" style="1" customWidth="1"/>
     <col min="5" max="5" width="23" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.75" style="1"/>
+    <col min="6" max="6" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7481481481481" style="1"/>
     <col min="8" max="8" width="20" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.75" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="15.75" style="1"/>
+    <col min="9" max="9" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="15.7481481481481" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="63.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="63.95" customHeight="1" spans="2:5">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
-    </row>
-    <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:5">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
-    </row>
-    <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:5">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-    </row>
-    <row r="14" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="14" t="s">
+    <row r="4" customHeight="1" spans="2:5">
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:5">
+      <c r="B5" s="12"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:5">
+      <c r="B6" s="12"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:5">
+      <c r="B7" s="12"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:5">
+      <c r="B8" s="12"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:5">
+      <c r="B9" s="12"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:5">
+      <c r="B10" s="12"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:5">
+      <c r="B11" s="12"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:5">
+      <c r="B12" s="12"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="13"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:5">
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="16"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:5">
+      <c r="B14" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="18">
         <f>COUNTA(B4:B13)</f>
         <v>0</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16" t="s">
+      <c r="D14" s="18"/>
+      <c r="E14" s="19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" customHeight="1" spans="2:5">
       <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <f>SUM(C4:C13)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="17" t="s">
+      <c r="D15" s="3"/>
+      <c r="E15" s="20" t="s">
         <v>9</v>
       </c>
     </row>
@@ -891,173 +1517,193 @@
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C2:E2"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
-    <col min="3" max="4" width="15.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="4" width="15.7481481481481" style="1" customWidth="1"/>
     <col min="5" max="5" width="23" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.75" style="1"/>
+    <col min="6" max="6" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7481481481481" style="1"/>
     <col min="8" max="8" width="20" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.75" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="15.75" style="1"/>
+    <col min="9" max="9" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="15.7481481481481" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="63.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="63.95" customHeight="1" spans="2:5">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
-    </row>
-    <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:5">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
-    </row>
-    <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:5">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="5" t="s">
+    <row r="4" customHeight="1" spans="2:5">
+      <c r="B4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="10">
         <v>10</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="8" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:5">
+      <c r="B5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="6">
         <v>15</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="8" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:5">
+      <c r="B6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="6">
         <v>15</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-    </row>
-    <row r="14" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="14" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:5">
+      <c r="B7" s="12"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:5">
+      <c r="B8" s="12"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:5">
+      <c r="B9" s="12"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:5">
+      <c r="B10" s="12"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:5">
+      <c r="B11" s="12"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:5">
+      <c r="B12" s="12"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="13"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:5">
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="16"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:5">
+      <c r="B14" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="18">
         <f>COUNTA(B4:B13)</f>
         <v>3</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16" t="s">
+      <c r="D14" s="18"/>
+      <c r="E14" s="19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" customHeight="1" spans="2:5">
       <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <f>SUM(C4:C13)</f>
         <v>40</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="17" t="s">
+      <c r="D15" s="3"/>
+      <c r="E15" s="20" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1066,168 +1712,169 @@
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C2:E2"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B1:E15"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
-    <col min="3" max="4" width="15.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="4" width="15.7481481481481" style="1" customWidth="1"/>
     <col min="5" max="5" width="23" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.75" style="1"/>
+    <col min="6" max="6" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7481481481481" style="1"/>
     <col min="8" max="8" width="20" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.75" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="15.75" style="1"/>
+    <col min="9" max="9" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="15.7481481481481" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="63.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="63.95" customHeight="1" spans="2:5">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
-    </row>
-    <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:5">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
-    </row>
-    <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:5">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="5" t="s">
+    <row r="4" customHeight="1" spans="2:5">
+      <c r="B4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="10">
         <v>20</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="8" t="s">
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:5">
+      <c r="B5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="6">
         <v>15</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="8" t="s">
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:5">
+      <c r="B6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="6">
         <v>15</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="8" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:5">
+      <c r="B7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="6">
         <v>10</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-    </row>
-    <row r="14" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="14" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:5">
+      <c r="B8" s="12"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:5">
+      <c r="B9" s="12"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:5">
+      <c r="B10" s="12"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:5">
+      <c r="B11" s="12"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:5">
+      <c r="B12" s="12"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="13"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:5">
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="16"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:5">
+      <c r="B14" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="18">
         <f>COUNTA(B4:B13)</f>
         <v>4</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16" t="s">
+      <c r="D14" s="18"/>
+      <c r="E14" s="19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" customHeight="1" spans="2:5">
       <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <f>SUM(C4:C13)</f>
         <v>60</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="17" t="s">
+      <c r="D15" s="3"/>
+      <c r="E15" s="20" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1236,174 +1883,175 @@
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C2:E2"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B1:E15"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
-    <col min="3" max="4" width="15.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="4" width="15.7481481481481" style="1" customWidth="1"/>
     <col min="5" max="5" width="23" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.75" style="1"/>
+    <col min="6" max="6" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7481481481481" style="1"/>
     <col min="8" max="8" width="20" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.75" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="15.75" style="1"/>
+    <col min="9" max="9" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="15.7481481481481" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="63.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="63.95" customHeight="1" spans="2:5">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
-    </row>
-    <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:5">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
-    </row>
-    <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:5">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="5" t="s">
+    <row r="4" customHeight="1" spans="2:5">
+      <c r="B4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="10">
         <v>15</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="8" t="s">
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:5">
+      <c r="B5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="6">
         <v>10</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="8" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:5">
+      <c r="B6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="6">
         <v>10</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="8" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:5">
+      <c r="B7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="6">
         <v>10</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="8" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:5">
+      <c r="B8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="6">
         <v>10</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="8" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:5">
+      <c r="B9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="6">
         <v>10</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-    </row>
-    <row r="14" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="14" t="s">
+      <c r="D9" s="6"/>
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:5">
+      <c r="B10" s="12"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:5">
+      <c r="B11" s="12"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:5">
+      <c r="B12" s="12"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="13"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:5">
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="16"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:5">
+      <c r="B14" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="18">
         <f>COUNTA(B4:B13)</f>
         <v>6</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16" t="s">
+      <c r="D14" s="18"/>
+      <c r="E14" s="19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" customHeight="1" spans="2:5">
       <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <f>SUM(C4:C13)</f>
         <v>65</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="17" t="s">
+      <c r="D15" s="3"/>
+      <c r="E15" s="20" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1412,168 +2060,169 @@
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C2:E2"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
-    <col min="3" max="4" width="15.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="4" width="15.7481481481481" style="1" customWidth="1"/>
     <col min="5" max="5" width="23" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.75" style="1"/>
+    <col min="6" max="6" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7481481481481" style="1"/>
     <col min="8" max="8" width="20" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.75" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="15.75" style="1"/>
+    <col min="9" max="9" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="15.7481481481481" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="63.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="63.95" customHeight="1" spans="2:5">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
-    </row>
-    <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:5">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
-    </row>
-    <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:5">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="5" t="s">
+    <row r="4" customHeight="1" spans="2:5">
+      <c r="B4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="10">
         <v>15</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="8" t="s">
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:5">
+      <c r="B5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="6">
         <v>10</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="8" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:5">
+      <c r="B6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="6">
         <v>10</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="8" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:5">
+      <c r="B7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="6">
         <v>10</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="8" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:5">
+      <c r="B8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="6">
         <v>10</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="8" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:5">
+      <c r="B9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="6">
         <v>10</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="13"/>
-    </row>
-    <row r="13" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="14" t="s">
+      <c r="D9" s="6"/>
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:5">
+      <c r="B10" s="12"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:5">
+      <c r="B11" s="12"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:5">
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="16"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:5">
+      <c r="B13" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="18">
         <f>COUNTA(B4:B12)</f>
         <v>6</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16" t="s">
+      <c r="D13" s="18"/>
+      <c r="E13" s="19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" customHeight="1" spans="2:5">
       <c r="B14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <f>SUM(C4:C12)</f>
         <v>65</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="17" t="s">
+      <c r="D14" s="3"/>
+      <c r="E14" s="20" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1582,158 +2231,159 @@
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C2:E2"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B1:E13"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
-    <col min="3" max="4" width="15.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="4" width="15.7481481481481" style="1" customWidth="1"/>
     <col min="5" max="5" width="23" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.75" style="1"/>
+    <col min="6" max="6" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7481481481481" style="1"/>
     <col min="8" max="8" width="20" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.75" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="15.75" style="1"/>
+    <col min="9" max="9" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="15.7481481481481" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="63.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="63.95" customHeight="1" spans="2:5">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
-    </row>
-    <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:5">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
-    </row>
-    <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:5">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="5" t="s">
+    <row r="4" customHeight="1" spans="2:5">
+      <c r="B4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="10">
         <v>10</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="8" t="s">
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:5">
+      <c r="B5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="6">
         <v>10</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="8" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:5">
+      <c r="B6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="6">
         <v>10</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="8" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:5">
+      <c r="B7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="6">
         <v>10</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="8" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:5">
+      <c r="B8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="6">
         <v>10</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="13"/>
-    </row>
-    <row r="12" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="14" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:5">
+      <c r="B9" s="12"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:5">
+      <c r="B10" s="12"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:5">
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="16"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:5">
+      <c r="B12" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="18">
         <f>COUNTA(B4:B11)</f>
         <v>5</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16" t="s">
+      <c r="D12" s="18"/>
+      <c r="E12" s="19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" customHeight="1" spans="2:5">
       <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <f>SUM(C4:C11)</f>
         <v>50</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="17" t="s">
+      <c r="D13" s="3"/>
+      <c r="E13" s="20" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1742,158 +2392,159 @@
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C2:E2"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
-    <col min="3" max="4" width="15.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="4" width="15.7481481481481" style="1" customWidth="1"/>
     <col min="5" max="5" width="23" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.75" style="1"/>
+    <col min="6" max="6" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7481481481481" style="1"/>
     <col min="8" max="8" width="20" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.75" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="15.75" style="1"/>
+    <col min="9" max="9" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="15.7481481481481" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="63.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="63.95" customHeight="1" spans="2:5">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
-    </row>
-    <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:5">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
-    </row>
-    <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:5">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="5" t="s">
+    <row r="4" customHeight="1" spans="2:5">
+      <c r="B4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="10">
         <v>10</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="8" t="s">
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:5">
+      <c r="B5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="6">
         <v>10</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="8" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:5">
+      <c r="B6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="6">
         <v>10</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="8" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:5">
+      <c r="B7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="6">
         <v>10</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="8" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:5">
+      <c r="B8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="6">
         <v>10</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="13"/>
-    </row>
-    <row r="12" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="14" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:5">
+      <c r="B9" s="12"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:5">
+      <c r="B10" s="12"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:5">
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="16"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:5">
+      <c r="B12" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="18">
         <f>COUNTA(B4:B11)</f>
         <v>5</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16" t="s">
+      <c r="D12" s="18"/>
+      <c r="E12" s="19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" customHeight="1" spans="2:5">
       <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <f>SUM(C4:C11)</f>
         <v>50</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="17" t="s">
+      <c r="D13" s="3"/>
+      <c r="E13" s="20" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1902,158 +2553,159 @@
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C2:E2"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
-    <col min="3" max="4" width="15.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="4" width="15.7481481481481" style="1" customWidth="1"/>
     <col min="5" max="5" width="23" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.75" style="1"/>
+    <col min="6" max="6" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7481481481481" style="1"/>
     <col min="8" max="8" width="20" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.75" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="15.75" style="1"/>
+    <col min="9" max="9" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="15.7481481481481" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="63.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="63.95" customHeight="1" spans="2:5">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
-    </row>
-    <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:5">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
-    </row>
-    <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:5">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="5" t="s">
+    <row r="4" customHeight="1" spans="2:5">
+      <c r="B4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="10">
         <v>18</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="8" t="s">
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:5">
+      <c r="B5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="6">
         <v>10</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="8" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:5">
+      <c r="B6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="6">
         <v>10</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="8" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:5">
+      <c r="B7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="6">
         <v>10</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="8" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:5">
+      <c r="B8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="6">
         <v>10</v>
       </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="13"/>
-    </row>
-    <row r="12" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="14" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:5">
+      <c r="B9" s="12"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:5">
+      <c r="B10" s="12"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:5">
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="16"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:5">
+      <c r="B12" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="18">
         <f>COUNTA(B4:B11)</f>
         <v>5</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16" t="s">
+      <c r="D12" s="18"/>
+      <c r="E12" s="19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" customHeight="1" spans="2:5">
       <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <f>SUM(C4:C11)</f>
         <v>58</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="17" t="s">
+      <c r="D13" s="3"/>
+      <c r="E13" s="20" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2062,21 +2714,185 @@
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C2:E2"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="B1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:E1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="4" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7481481481481" style="1"/>
+    <col min="8" max="8" width="20" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="15.7481481481481" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="63.95" customHeight="1" spans="2:5">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:5">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:5">
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="2:5">
+      <c r="B4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="10">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="2:5">
+      <c r="B5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="6">
+        <v>15</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="2:5">
+      <c r="B6" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="6">
+        <v>5</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="2:5">
+      <c r="B7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="6">
+        <v>15</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="2:5">
+      <c r="B8" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="6">
+        <v>10</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="2:5">
+      <c r="B9" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="6">
+        <v>15</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="2:5">
+      <c r="B10" s="12"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:5">
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="16"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:5">
+      <c r="B12" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="18">
+        <f>COUNTA(B4:B11)</f>
+        <v>6</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="2:5">
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3">
+        <f>SUM(C4:C11)</f>
+        <v>75</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
+  <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/用藥記錄/2016/201611.xlsx
+++ b/用藥記錄/2016/201611.xlsx
@@ -142,7 +142,7 @@
     <t>包</t>
   </si>
   <si>
-    <t>汤</t>
+    <t>汤剂</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>

--- a/用藥記錄/2016/201611.xlsx
+++ b/用藥記錄/2016/201611.xlsx
@@ -15,7 +15,7 @@
     <sheet name="5" sheetId="6" r:id="rId6"/>
     <sheet name="6" sheetId="7" r:id="rId7"/>
     <sheet name="7" sheetId="8" r:id="rId8"/>
-    <sheet name="9" sheetId="9" r:id="rId9"/>
+    <sheet name="10" sheetId="9" r:id="rId9"/>
     <sheet name="Sheet2" sheetId="10" r:id="rId10"/>
     <sheet name="Sheet3" sheetId="11" r:id="rId11"/>
   </sheets>
@@ -23,12 +23,12 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'0'!$A$1:$F$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'01'!$A$1:$F$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'1'!$A$1:$F$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">'10'!$A$1:$F$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'2'!$A$1:$F$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'3'!$A$1:$F$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'5'!$A$1:$F$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'6'!$A$1:$F$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'7'!$A$1:$F$28</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">'9'!$A$1:$F$28</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -2119,7 +2119,7 @@
   <dimension ref="B1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/用藥記錄/2016/201611.xlsx
+++ b/用藥記錄/2016/201611.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="9120" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="9120" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
@@ -15,15 +15,17 @@
     <sheet name="5" sheetId="6" r:id="rId6"/>
     <sheet name="6" sheetId="7" r:id="rId7"/>
     <sheet name="7" sheetId="8" r:id="rId8"/>
-    <sheet name="10" sheetId="9" r:id="rId9"/>
-    <sheet name="Sheet2" sheetId="10" r:id="rId10"/>
-    <sheet name="Sheet3" sheetId="11" r:id="rId11"/>
+    <sheet name="13" sheetId="9" r:id="rId9"/>
+    <sheet name="14" sheetId="12" r:id="rId10"/>
+    <sheet name="Sheet2" sheetId="10" r:id="rId11"/>
+    <sheet name="Sheet3" sheetId="11" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'0'!$A$1:$F$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'01'!$A$1:$F$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'1'!$A$1:$F$30</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">'10'!$A$1:$F$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">'13'!$A$1:$F$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">'14'!$A$1:$F$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'2'!$A$1:$F$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'3'!$A$1:$F$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'5'!$A$1:$F$28</definedName>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="36">
   <si>
     <t>驗證功效</t>
   </si>
@@ -407,7 +409,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -459,6 +461,15 @@
     </xf>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -807,17 +818,17 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
@@ -932,6 +943,184 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
+    <col min="3" max="4" width="15.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.75" style="1"/>
+    <col min="8" max="8" width="20" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.75" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="15.75" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="63.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
+    </row>
+    <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
+    </row>
+    <row r="3" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="7">
+        <v>15</v>
+      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="20">
+        <v>15</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="20">
+        <v>5</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="20">
+        <v>10</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="20">
+        <v>10</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="20">
+        <v>5</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="9"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="15">
+        <f>COUNTA(B4:B11)</f>
+        <v>6</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="18">
+        <f>SUM(C4:C11)</f>
+        <v>60</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E2"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -943,7 +1132,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -981,19 +1170,19 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
+      <c r="C1" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
@@ -1143,19 +1332,19 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
@@ -1313,19 +1502,19 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
@@ -1489,19 +1678,19 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
@@ -1659,19 +1848,19 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
@@ -1819,19 +2008,19 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
@@ -1979,19 +2168,19 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">
@@ -2118,7 +2307,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -2139,21 +2328,21 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="20"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
     </row>
     <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="2" t="s">

--- a/用藥記錄/2016/201611.xlsx
+++ b/用藥記錄/2016/201611.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="9120" activeTab="9"/>
+    <workbookView windowWidth="19095" windowHeight="9120" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="0" sheetId="1" r:id="rId1"/>
@@ -16,9 +16,11 @@
     <sheet name="6" sheetId="7" r:id="rId7"/>
     <sheet name="7" sheetId="8" r:id="rId8"/>
     <sheet name="13" sheetId="9" r:id="rId9"/>
-    <sheet name="14" sheetId="12" r:id="rId10"/>
-    <sheet name="Sheet2" sheetId="10" r:id="rId11"/>
-    <sheet name="Sheet3" sheetId="11" r:id="rId12"/>
+    <sheet name="14" sheetId="10" r:id="rId10"/>
+    <sheet name="22" sheetId="11" r:id="rId11"/>
+    <sheet name="28" sheetId="12" r:id="rId12"/>
+    <sheet name="Sheet2" sheetId="13" r:id="rId13"/>
+    <sheet name="Sheet3" sheetId="14" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'0'!$A$1:$F$30</definedName>
@@ -31,13 +33,15 @@
     <definedName name="_xlnm.Print_Area" localSheetId="5">'5'!$A$1:$F$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'6'!$A$1:$F$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'7'!$A$1:$F$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">'22'!$A$1:$F$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="11">'28'!$A$1:$F$28</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
     <t>驗證功效</t>
   </si>
@@ -111,6 +115,9 @@
     <t>升清降濁、通鼻竅</t>
   </si>
   <si>
+    <t>汤剂</t>
+  </si>
+  <si>
     <t>龍骨</t>
   </si>
   <si>
@@ -144,55 +151,385 @@
     <t>包</t>
   </si>
   <si>
-    <t>汤剂</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>桔梗</t>
+  </si>
+  <si>
+    <t>白朮</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -272,18 +609,9 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -305,21 +633,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="slantDashDot">
-        <color theme="7"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -390,121 +703,421 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="slantDashDot">
+        <color theme="7"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+  <cellXfs count="23">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="15" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="8" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="5" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="10" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="6" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="12" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="7" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="8" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="9" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="10" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="11" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="12" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="12" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="12" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="13" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="14" xfId="15" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="4"/>
-    <cellStyle name="常规 3" xfId="3"/>
-    <cellStyle name="常规 4" xfId="2"/>
-    <cellStyle name="常规 5" xfId="5"/>
-    <cellStyle name="常规 6" xfId="1"/>
+  <cellStyles count="55">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="1"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="20% - Accent6" xfId="3" builtinId="50"/>
+    <cellStyle name="60% - Accent5" xfId="4" builtinId="48"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="常规 4" xfId="7"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="Percent" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - Accent4" xfId="10" builtinId="44"/>
+    <cellStyle name="常规 3" xfId="11"/>
+    <cellStyle name="Accent4" xfId="12" builtinId="41"/>
+    <cellStyle name="60% - Accent3" xfId="13" builtinId="40"/>
+    <cellStyle name="20% - Accent3" xfId="14" builtinId="38"/>
+    <cellStyle name="常规 2" xfId="15"/>
+    <cellStyle name="Accent3" xfId="16" builtinId="37"/>
+    <cellStyle name="20% - Accent2" xfId="17" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="18" builtinId="33"/>
+    <cellStyle name="常规 5" xfId="19"/>
+    <cellStyle name="Accent6" xfId="20" builtinId="49"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32"/>
+    <cellStyle name="Heading 4" xfId="22" builtinId="19"/>
+    <cellStyle name="40% - Accent1" xfId="23" builtinId="31"/>
+    <cellStyle name="40% - Accent4" xfId="24" builtinId="43"/>
+    <cellStyle name="Comma[0]" xfId="25" builtinId="6"/>
+    <cellStyle name="40% - Accent3" xfId="26" builtinId="39"/>
+    <cellStyle name="Neutral" xfId="27" builtinId="28"/>
+    <cellStyle name="Bad" xfId="28" builtinId="27"/>
+    <cellStyle name="Linked Cell" xfId="29" builtinId="24"/>
+    <cellStyle name="20% - Accent4" xfId="30" builtinId="42"/>
+    <cellStyle name="Total" xfId="31" builtinId="25"/>
+    <cellStyle name="Output" xfId="32" builtinId="21"/>
+    <cellStyle name="Note" xfId="33" builtinId="10"/>
+    <cellStyle name="Input" xfId="34" builtinId="20"/>
+    <cellStyle name="Good" xfId="35" builtinId="26"/>
+    <cellStyle name="60% - Accent2" xfId="36" builtinId="36"/>
+    <cellStyle name="Calculation" xfId="37" builtinId="22"/>
+    <cellStyle name="Heading 3" xfId="38" builtinId="18"/>
+    <cellStyle name="Currency[0]" xfId="39" builtinId="7"/>
+    <cellStyle name="Heading 1" xfId="40" builtinId="16"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52"/>
+    <cellStyle name="40% - Accent2" xfId="42" builtinId="35"/>
+    <cellStyle name="Title" xfId="43" builtinId="15"/>
+    <cellStyle name="Accent1" xfId="44" builtinId="29"/>
+    <cellStyle name="CExplanatory Text" xfId="45" builtinId="53"/>
+    <cellStyle name="Currency" xfId="46" builtinId="4"/>
+    <cellStyle name="20% - Accent1" xfId="47" builtinId="30"/>
+    <cellStyle name="常规 6" xfId="48"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9"/>
+    <cellStyle name="Warning Text" xfId="50" builtinId="11"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8"/>
+    <cellStyle name="Heading 2" xfId="52" builtinId="17"/>
+    <cellStyle name="Comma" xfId="53" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="54" builtinId="23"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -513,7 +1126,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="4C4C4C"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -794,139 +1407,140 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B1:E15"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
-    <col min="3" max="4" width="15.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="4" width="15.7481481481481" style="1" customWidth="1"/>
     <col min="5" max="5" width="23" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.75" style="1"/>
+    <col min="6" max="6" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7481481481481" style="1"/>
     <col min="8" max="8" width="20" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.75" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="15.75" style="1"/>
+    <col min="9" max="9" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="15.7481481481481" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="63.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="63.95" customHeight="1" spans="2:5">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
-    </row>
-    <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C1" s="9"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:5">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
-    </row>
-    <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C2" s="11"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:5">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="9"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="9"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="9"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="9"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="9"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="9"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="9"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="9"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-    </row>
-    <row r="14" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="14" t="s">
+    <row r="4" customHeight="1" spans="2:5">
+      <c r="B4" s="21"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:5">
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:5">
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:5">
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:5">
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:5">
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:5">
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:5">
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:5">
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="13"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:5">
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="16"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:5">
+      <c r="B14" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="18">
         <f>COUNTA(B4:B13)</f>
         <v>0</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16" t="s">
+      <c r="D14" s="18"/>
+      <c r="E14" s="19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" customHeight="1" spans="2:5">
       <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="9">
         <f>SUM(C4:C13)</f>
         <v>0</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="17" t="s">
+      <c r="D15" s="9"/>
+      <c r="E15" s="20" t="s">
         <v>9</v>
       </c>
     </row>
@@ -935,176 +1549,177 @@
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C2:E2"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
-    <col min="3" max="4" width="15.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="4" width="15.7481481481481" style="1" customWidth="1"/>
     <col min="5" max="5" width="23" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.75" style="1"/>
+    <col min="6" max="6" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7481481481481" style="1"/>
     <col min="8" max="8" width="20" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.75" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="15.75" style="1"/>
+    <col min="9" max="9" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="15.7481481481481" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="63.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="63.95" customHeight="1" spans="2:5">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
-    </row>
-    <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:5">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
-    </row>
-    <row r="3" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:5">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="7">
+    <row r="4" customHeight="1" spans="2:5">
+      <c r="B4" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="22">
         <v>15</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="9" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="20">
+    </row>
+    <row r="5" customHeight="1" spans="2:5">
+      <c r="B5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="11">
         <v>15</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="20">
+      <c r="D5" s="11"/>
+      <c r="E5" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="2:5">
+      <c r="B6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="11">
         <v>5</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="9" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="20">
-        <v>10</v>
-      </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="10" t="s">
+    </row>
+    <row r="7" customHeight="1" spans="2:5">
+      <c r="B7" s="10" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="9" t="s">
+      <c r="C7" s="11">
+        <v>10</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="20">
-        <v>10</v>
-      </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="10" t="s">
+    </row>
+    <row r="8" customHeight="1" spans="2:5">
+      <c r="B8" s="10" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="9" t="s">
+      <c r="C8" s="11">
+        <v>10</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="20">
+    </row>
+    <row r="9" customHeight="1" spans="2:5">
+      <c r="B9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="11">
         <v>5</v>
       </c>
-      <c r="D9" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="9"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="13"/>
-    </row>
-    <row r="12" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="14" t="s">
+      <c r="D9" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="2:5">
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:5">
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="16"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:5">
+      <c r="B12" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="18">
         <f>COUNTA(B4:B11)</f>
         <v>6</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16" t="s">
+      <c r="D12" s="18"/>
+      <c r="E12" s="19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" customHeight="1" spans="2:5">
       <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="9">
         <f>SUM(C4:C11)</f>
         <v>60</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="17" t="s">
+      <c r="D13" s="9"/>
+      <c r="E13" s="20" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1113,186 +1728,521 @@
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C2:E2"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="B1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="4" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7481481481481" style="1"/>
+    <col min="8" max="8" width="20" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="15.7481481481481" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="63.95" customHeight="1" spans="2:5">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:5">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:5">
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="2:5">
+      <c r="B4" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="22">
+        <v>10</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="2:5">
+      <c r="B5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="11">
+        <v>10</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="2:5">
+      <c r="B6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="11">
+        <v>5</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="2:5">
+      <c r="B7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="11">
+        <v>10</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="2:5">
+      <c r="B8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="11">
+        <v>10</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="2:5">
+      <c r="B9" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="11">
+        <v>10</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:5">
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:5">
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="16"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:5">
+      <c r="B12" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="18">
+        <f>COUNTA(B4:B11)</f>
+        <v>6</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="2:5">
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="9">
+        <f>SUM(C4:C11)</f>
+        <v>55</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
+  <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="B1:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="4" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7481481481481" style="1"/>
+    <col min="8" max="8" width="20" style="1" customWidth="1"/>
+    <col min="9" max="9" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="15.7481481481481" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="63.95" customHeight="1" spans="2:5">
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:5">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:5">
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="2:5">
+      <c r="B4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="11">
+        <v>10</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:5">
+      <c r="B5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="11">
+        <v>10</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:5">
+      <c r="B6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="11">
+        <v>10</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:5">
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:5">
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:5">
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:5">
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:5">
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="16"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:5">
+      <c r="B12" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="18">
+        <f>COUNTA(B4:B11)</f>
+        <v>3</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="2:5">
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="9">
+        <f>SUM(C4:C11)</f>
+        <v>30</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
+  <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
-    <col min="3" max="4" width="15.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="4" width="15.7481481481481" style="1" customWidth="1"/>
     <col min="5" max="5" width="23" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.75" style="1"/>
+    <col min="6" max="6" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7481481481481" style="1"/>
     <col min="8" max="8" width="20" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.75" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="15.75" style="1"/>
+    <col min="9" max="9" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="15.7481481481481" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="63.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="63.95" customHeight="1" spans="2:5">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
-    </row>
-    <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:5">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
-    </row>
-    <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C2" s="11"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:5">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="6" t="s">
+    <row r="4" customHeight="1" spans="2:5">
+      <c r="B4" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="7">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="9" t="s">
+      <c r="C4" s="22">
+        <v>10</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:5">
+      <c r="B5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="11">
         <v>15</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="9" t="s">
+      <c r="D5" s="11"/>
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:5">
+      <c r="B6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="11">
         <v>15</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="9"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="9"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="9"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="9"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="9"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="9"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-    </row>
-    <row r="14" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="14" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:5">
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:5">
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:5">
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:5">
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:5">
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:5">
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="13"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:5">
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="16"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:5">
+      <c r="B14" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="18">
         <f>COUNTA(B4:B13)</f>
         <v>3</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16" t="s">
+      <c r="D14" s="18"/>
+      <c r="E14" s="19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" customHeight="1" spans="2:5">
       <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="9">
         <f>SUM(C4:C13)</f>
         <v>40</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="17" t="s">
+      <c r="D15" s="9"/>
+      <c r="E15" s="20" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1301,168 +2251,169 @@
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C2:E2"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B1:E15"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
-    <col min="3" max="4" width="15.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="4" width="15.7481481481481" style="1" customWidth="1"/>
     <col min="5" max="5" width="23" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.75" style="1"/>
+    <col min="6" max="6" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7481481481481" style="1"/>
     <col min="8" max="8" width="20" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.75" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="15.75" style="1"/>
+    <col min="9" max="9" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="15.7481481481481" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="63.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="63.95" customHeight="1" spans="2:5">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
-    </row>
-    <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:5">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
-    </row>
-    <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C2" s="11"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:5">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="6" t="s">
+    <row r="4" customHeight="1" spans="2:5">
+      <c r="B4" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="22">
         <v>20</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="9" t="s">
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:5">
+      <c r="B5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="11">
         <v>15</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="9" t="s">
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:5">
+      <c r="B6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="11">
         <v>15</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="9" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:5">
+      <c r="B7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="5">
-        <v>10</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="9"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="9"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="9"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="9"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="9"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-    </row>
-    <row r="14" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="14" t="s">
+      <c r="C7" s="11">
+        <v>10</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:5">
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:5">
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:5">
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:5">
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:5">
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="13"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:5">
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="16"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:5">
+      <c r="B14" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="18">
         <f>COUNTA(B4:B13)</f>
         <v>4</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16" t="s">
+      <c r="D14" s="18"/>
+      <c r="E14" s="19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" customHeight="1" spans="2:5">
       <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="9">
         <f>SUM(C4:C13)</f>
         <v>60</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="17" t="s">
+      <c r="D15" s="9"/>
+      <c r="E15" s="20" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1471,174 +2422,175 @@
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C2:E2"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B1:E15"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
-    <col min="3" max="4" width="15.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="4" width="15.7481481481481" style="1" customWidth="1"/>
     <col min="5" max="5" width="23" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.75" style="1"/>
+    <col min="6" max="6" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7481481481481" style="1"/>
     <col min="8" max="8" width="20" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.75" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="15.75" style="1"/>
+    <col min="9" max="9" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="15.7481481481481" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="63.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="63.95" customHeight="1" spans="2:5">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
-    </row>
-    <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:5">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
-    </row>
-    <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C2" s="11"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:5">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="6" t="s">
+    <row r="4" customHeight="1" spans="2:5">
+      <c r="B4" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="22">
         <v>15</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="9" t="s">
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:5">
+      <c r="B5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="5">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="9" t="s">
+      <c r="C5" s="11">
+        <v>10</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:5">
+      <c r="B6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="5">
-        <v>10</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="9" t="s">
+      <c r="C6" s="11">
+        <v>10</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:5">
+      <c r="B7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="5">
-        <v>10</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="9" t="s">
+      <c r="C7" s="11">
+        <v>10</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:5">
+      <c r="B8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="5">
-        <v>10</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="9" t="s">
+      <c r="C8" s="11">
+        <v>10</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:5">
+      <c r="B9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="5">
-        <v>10</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="9"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="9"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="9"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="13"/>
-    </row>
-    <row r="14" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="14" t="s">
+      <c r="C9" s="11">
+        <v>10</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:5">
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:5">
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:5">
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="13"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:5">
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="16"/>
+    </row>
+    <row r="14" customHeight="1" spans="2:5">
+      <c r="B14" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="18">
         <f>COUNTA(B4:B13)</f>
         <v>6</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16" t="s">
+      <c r="D14" s="18"/>
+      <c r="E14" s="19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" customHeight="1" spans="2:5">
       <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="9">
         <f>SUM(C4:C13)</f>
         <v>65</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="17" t="s">
+      <c r="D15" s="9"/>
+      <c r="E15" s="20" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1647,168 +2599,169 @@
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C2:E2"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
-    <col min="3" max="4" width="15.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="4" width="15.7481481481481" style="1" customWidth="1"/>
     <col min="5" max="5" width="23" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.75" style="1"/>
+    <col min="6" max="6" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7481481481481" style="1"/>
     <col min="8" max="8" width="20" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.75" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="15.75" style="1"/>
+    <col min="9" max="9" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="15.7481481481481" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="63.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="63.95" customHeight="1" spans="2:5">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
-    </row>
-    <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:5">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
-    </row>
-    <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C2" s="11"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:5">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="6" t="s">
+    <row r="4" customHeight="1" spans="2:5">
+      <c r="B4" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="22">
         <v>15</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="9" t="s">
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:5">
+      <c r="B5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="5">
-        <v>10</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="9" t="s">
+      <c r="C5" s="11">
+        <v>10</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:5">
+      <c r="B6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="5">
-        <v>10</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="9" t="s">
+      <c r="C6" s="11">
+        <v>10</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:5">
+      <c r="B7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="5">
-        <v>10</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="9" t="s">
+      <c r="C7" s="11">
+        <v>10</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:5">
+      <c r="B8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="5">
-        <v>10</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="9" t="s">
+      <c r="C8" s="11">
+        <v>10</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:5">
+      <c r="B9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="5">
-        <v>10</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="9"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="9"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="13"/>
-    </row>
-    <row r="13" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="14" t="s">
+      <c r="C9" s="11">
+        <v>10</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:5">
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:5">
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:5">
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="16"/>
+    </row>
+    <row r="13" customHeight="1" spans="2:5">
+      <c r="B13" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="18">
         <f>COUNTA(B4:B12)</f>
         <v>6</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16" t="s">
+      <c r="D13" s="18"/>
+      <c r="E13" s="19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" customHeight="1" spans="2:5">
       <c r="B14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="9">
         <f>SUM(C4:C12)</f>
         <v>65</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="17" t="s">
+      <c r="D14" s="9"/>
+      <c r="E14" s="20" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1817,158 +2770,159 @@
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C2:E2"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B1:E13"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
-    <col min="3" max="4" width="15.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="4" width="15.7481481481481" style="1" customWidth="1"/>
     <col min="5" max="5" width="23" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.75" style="1"/>
+    <col min="6" max="6" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7481481481481" style="1"/>
     <col min="8" max="8" width="20" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.75" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="15.75" style="1"/>
+    <col min="9" max="9" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="15.7481481481481" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="63.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="63.95" customHeight="1" spans="2:5">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
-    </row>
-    <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:5">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
-    </row>
-    <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C2" s="11"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:5">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="6" t="s">
+    <row r="4" customHeight="1" spans="2:5">
+      <c r="B4" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="7">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="22">
+        <v>10</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="9" t="s">
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:5">
+      <c r="B5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="5">
-        <v>10</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="9" t="s">
+      <c r="C5" s="11">
+        <v>10</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:5">
+      <c r="B6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="5">
-        <v>10</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="9" t="s">
+      <c r="C6" s="11">
+        <v>10</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:5">
+      <c r="B7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="5">
-        <v>10</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="9" t="s">
+      <c r="C7" s="11">
+        <v>10</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:5">
+      <c r="B8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="5">
-        <v>10</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="9"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="9"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="13"/>
-    </row>
-    <row r="12" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="14" t="s">
+      <c r="C8" s="11">
+        <v>10</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:5">
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:5">
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:5">
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="16"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:5">
+      <c r="B12" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="18">
         <f>COUNTA(B4:B11)</f>
         <v>5</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16" t="s">
+      <c r="D12" s="18"/>
+      <c r="E12" s="19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" customHeight="1" spans="2:5">
       <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="9">
         <f>SUM(C4:C11)</f>
         <v>50</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="17" t="s">
+      <c r="D13" s="9"/>
+      <c r="E13" s="20" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1977,158 +2931,159 @@
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C2:E2"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
-    <col min="3" max="4" width="15.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="4" width="15.7481481481481" style="1" customWidth="1"/>
     <col min="5" max="5" width="23" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.75" style="1"/>
+    <col min="6" max="6" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7481481481481" style="1"/>
     <col min="8" max="8" width="20" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.75" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="15.75" style="1"/>
+    <col min="9" max="9" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="15.7481481481481" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="63.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="63.95" customHeight="1" spans="2:5">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
-    </row>
-    <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:5">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
-    </row>
-    <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C2" s="11"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:5">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="6" t="s">
+    <row r="4" customHeight="1" spans="2:5">
+      <c r="B4" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="7">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="22">
+        <v>10</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="9" t="s">
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:5">
+      <c r="B5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="5">
-        <v>10</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="9" t="s">
+      <c r="C5" s="11">
+        <v>10</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:5">
+      <c r="B6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="5">
-        <v>10</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="9" t="s">
+      <c r="C6" s="11">
+        <v>10</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:5">
+      <c r="B7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="5">
-        <v>10</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="9" t="s">
+      <c r="C7" s="11">
+        <v>10</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:5">
+      <c r="B8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="5">
-        <v>10</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="9"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="9"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="13"/>
-    </row>
-    <row r="12" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="14" t="s">
+      <c r="C8" s="11">
+        <v>10</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:5">
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:5">
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:5">
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="16"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:5">
+      <c r="B12" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="18">
         <f>COUNTA(B4:B11)</f>
         <v>5</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16" t="s">
+      <c r="D12" s="18"/>
+      <c r="E12" s="19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" customHeight="1" spans="2:5">
       <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="9">
         <f>SUM(C4:C11)</f>
         <v>50</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="17" t="s">
+      <c r="D13" s="9"/>
+      <c r="E13" s="20" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2137,158 +3092,159 @@
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C2:E2"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
-    <col min="3" max="4" width="15.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="4" width="15.7481481481481" style="1" customWidth="1"/>
     <col min="5" max="5" width="23" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.75" style="1"/>
+    <col min="6" max="6" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7481481481481" style="1"/>
     <col min="8" max="8" width="20" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.75" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="15.75" style="1"/>
+    <col min="9" max="9" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="15.7481481481481" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="63.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="63.95" customHeight="1" spans="2:5">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
-    </row>
-    <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:5">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
-    </row>
-    <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C2" s="11"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:5">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="6" t="s">
+    <row r="4" customHeight="1" spans="2:5">
+      <c r="B4" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="22">
         <v>18</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="9" t="s">
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" customHeight="1" spans="2:5">
+      <c r="B5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="5">
-        <v>10</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="9" t="s">
+      <c r="C5" s="11">
+        <v>10</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" customHeight="1" spans="2:5">
+      <c r="B6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="5">
-        <v>10</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="9" t="s">
+      <c r="C6" s="11">
+        <v>10</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" customHeight="1" spans="2:5">
+      <c r="B7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="5">
-        <v>10</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="9" t="s">
+      <c r="C7" s="11">
+        <v>10</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" customHeight="1" spans="2:5">
+      <c r="B8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="5">
-        <v>10</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="9"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="9"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="13"/>
-    </row>
-    <row r="12" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="14" t="s">
+      <c r="C8" s="11">
+        <v>10</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" customHeight="1" spans="2:5">
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" customHeight="1" spans="2:5">
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:5">
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="16"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:5">
+      <c r="B12" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="18">
         <f>COUNTA(B4:B11)</f>
         <v>5</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16" t="s">
+      <c r="D12" s="18"/>
+      <c r="E12" s="19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" customHeight="1" spans="2:5">
       <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="9">
         <f>SUM(C4:C11)</f>
         <v>58</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="17" t="s">
+      <c r="D13" s="9"/>
+      <c r="E13" s="20" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2297,176 +3253,177 @@
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C2:E2"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="B1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.75" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="15.7481481481481" defaultRowHeight="24.95" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
-    <col min="3" max="4" width="15.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.2518518518519" style="1" customWidth="1"/>
+    <col min="3" max="4" width="15.7481481481481" style="1" customWidth="1"/>
     <col min="5" max="5" width="23" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.75" style="1"/>
+    <col min="6" max="6" width="15.7481481481481" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7481481481481" style="1"/>
     <col min="8" max="8" width="20" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.75" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="15.75" style="1"/>
+    <col min="9" max="9" width="24.7481481481481" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="15.7481481481481" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="63.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="63.95" customHeight="1" spans="2:5">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
-    </row>
-    <row r="2" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" customHeight="1" spans="2:5">
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
-    </row>
-    <row r="3" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+    </row>
+    <row r="3" customHeight="1" spans="2:5">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="7">
+    <row r="4" customHeight="1" spans="2:5">
+      <c r="B4" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="22">
         <v>15</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="9" t="s">
+      <c r="D4" s="9"/>
+      <c r="E4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="5">
+    </row>
+    <row r="5" customHeight="1" spans="2:5">
+      <c r="B5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="11">
         <v>15</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="D5" s="11"/>
+      <c r="E5" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="2:5">
+      <c r="B6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="11">
         <v>5</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="9" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="5">
+    </row>
+    <row r="7" customHeight="1" spans="2:5">
+      <c r="B7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="11">
         <v>15</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="9" t="s">
+      <c r="D7" s="11"/>
+      <c r="E7" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="5">
-        <v>10</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="10" t="s">
+    </row>
+    <row r="8" customHeight="1" spans="2:5">
+      <c r="B8" s="10" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="9" t="s">
+      <c r="C8" s="11">
+        <v>10</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="5">
+    </row>
+    <row r="9" customHeight="1" spans="2:5">
+      <c r="B9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="11">
         <v>15</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="9"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="13"/>
-    </row>
-    <row r="12" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="14" t="s">
+      <c r="D9" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="2:5">
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" customHeight="1" spans="2:5">
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="16"/>
+    </row>
+    <row r="12" customHeight="1" spans="2:5">
+      <c r="B12" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="18">
         <f>COUNTA(B4:B11)</f>
         <v>6</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16" t="s">
+      <c r="D12" s="18"/>
+      <c r="E12" s="19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" customHeight="1" spans="2:5">
       <c r="B13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="9">
         <f>SUM(C4:C11)</f>
         <v>75</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="17" t="s">
+      <c r="D13" s="9"/>
+      <c r="E13" s="20" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2475,8 +3432,8 @@
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C2:E2"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.29930555555555599" footer="0.29930555555555599"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.299305555555556" footer="0.299305555555556"/>
   <pageSetup paperSize="9" scale="66" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>